--- a/app/static/sheet1.xlsx
+++ b/app/static/sheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dada/workspace/fix_grid/app/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167D2BFA-1925-BB44-9AFC-AF86ED3FA613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92535CEE-7968-334F-A496-9F910F19CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16760" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'(表一)民政局停電彙整表 '!$K$5:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'(表一)民政局停電彙整表 '!$L$5:$L$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">工作表1!$A$1:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,12 +50,133 @@
           <rPr>
             <b/>
             <sz val="22"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="微軟正黑體"/>
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>依民政局google表單(表一)內容填寫並同步至經發局google表單(供台電人員填報)</t>
+          <t>依民政局</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>google</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>表單</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>表一</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>內容填寫並同步至經發局</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>google</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>表單</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>供台電人員填報</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="22"/>
+            <color rgb="FF000000"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -64,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>林園區立汯水泥公司大型鐵皮掛在電線桿上面、小型工廠全部沒電、聯絡電話許先生0932725822</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +360,10 @@
   <si>
     <t>已復電
 (確認請回復"是")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,14 +462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color indexed="81"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="18"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -361,6 +478,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -386,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -657,13 +782,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,12 +914,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,6 +936,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,11 +1272,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1147,17 +1289,17 @@
     <col min="6" max="6" width="19.1640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="26.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="4"/>
+    <col min="9" max="10" width="12.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.5" customHeight="1">
+    <row r="1" spans="1:21" ht="31.5" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>24</v>
       </c>
@@ -1165,14 +1307,15 @@
       <c r="I1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="39"/>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
-    </row>
-    <row r="2" spans="1:20" ht="34.5" customHeight="1" thickBot="1">
+      <c r="P1" s="39"/>
+    </row>
+    <row r="2" spans="1:21" ht="34.5" customHeight="1" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>21</v>
       </c>
@@ -1190,8 +1333,9 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:20" ht="34.5" customHeight="1">
+      <c r="P2" s="37"/>
+    </row>
+    <row r="3" spans="1:21" ht="34.5" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>22</v>
       </c>
@@ -1204,15 +1348,16 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="44"/>
       <c r="M3" s="44"/>
       <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
-    </row>
-    <row r="4" spans="1:20" ht="50.25" customHeight="1">
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
+    </row>
+    <row r="4" spans="1:21" ht="50.25" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -1240,26 +1385,29 @@
       <c r="I4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="39.75" customHeight="1">
+    <row r="5" spans="1:21" ht="39.75" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1272,13 +1420,14 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" ht="39.75" customHeight="1">
+      <c r="O5" s="12"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:21" ht="39.75" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1291,16 +1440,17 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="14"/>
-      <c r="T6" s="4" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="14"/>
+      <c r="U6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="39.75" customHeight="1">
+    <row r="7" spans="1:21" ht="39.75" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1313,16 +1463,17 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="14"/>
-      <c r="T7" s="4" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="14"/>
+      <c r="U7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="39.75" customHeight="1">
+    <row r="8" spans="1:21" ht="39.75" customHeight="1">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -1335,13 +1486,14 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:20" ht="39.75" customHeight="1">
+      <c r="O8" s="12"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" ht="39.75" customHeight="1">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -1354,13 +1506,14 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O9" s="12"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:21" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A10" s="30">
         <v>6</v>
       </c>
@@ -1372,14 +1525,15 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="12"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:20" ht="39.75" customHeight="1">
+      <c r="O10" s="12"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:21" ht="39.75" customHeight="1">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -1391,14 +1545,15 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="12"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" ht="39.75" customHeight="1">
+      <c r="O11" s="12"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:21" ht="39.75" customHeight="1">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -1410,14 +1565,15 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="12"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="1:20" ht="39.75" customHeight="1">
+      <c r="O12" s="12"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:21" ht="39.75" customHeight="1">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -1430,13 +1586,14 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:20" ht="39.75" customHeight="1">
+      <c r="O13" s="12"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" ht="39.75" customHeight="1">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -1449,13 +1606,14 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" ht="39.75" customHeight="1">
+      <c r="O14" s="12"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:21" ht="39.75" customHeight="1">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -1468,13 +1626,14 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:20" ht="39.75" customHeight="1">
+      <c r="O15" s="12"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" ht="39.75" customHeight="1">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -1487,13 +1646,14 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O16" s="12"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -1506,13 +1666,14 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O17" s="12"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" ht="39.75" customHeight="1">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -1524,14 +1685,15 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="12"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="13"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O18" s="12"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" ht="39.75" customHeight="1">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -1544,13 +1706,14 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O19" s="12"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" ht="39.75" customHeight="1">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -1563,13 +1726,14 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O20" s="12"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -1581,14 +1745,15 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O21" s="12"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16" ht="39.75" customHeight="1">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -1600,14 +1765,15 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="14"/>
-    </row>
-    <row r="23" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O22" s="12"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16" ht="39.75" customHeight="1">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -1619,14 +1785,15 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="12"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O23" s="12"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="1:16" ht="39.75" customHeight="1">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -1639,13 +1806,14 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O24" s="12"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -1657,14 +1825,15 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="12"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O25" s="12"/>
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="1:16" ht="39.75" customHeight="1">
       <c r="A26" s="11">
         <v>22</v>
       </c>
@@ -1676,14 +1845,15 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="12"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="28"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O26" s="12"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="1:16" ht="39.75" customHeight="1">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -1695,14 +1865,15 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="12"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="28"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O27" s="12"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" ht="39.75" customHeight="1">
       <c r="A28" s="11">
         <v>24</v>
       </c>
@@ -1714,14 +1885,15 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="12"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="28"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O28" s="12"/>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="1:16" ht="39.75" customHeight="1">
       <c r="A29" s="11">
         <v>25</v>
       </c>
@@ -1733,14 +1905,15 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="12"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="28"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O29" s="12"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="1:16" ht="39.75" customHeight="1">
       <c r="A30" s="11">
         <v>26</v>
       </c>
@@ -1753,13 +1926,14 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="1:15" s="5" customFormat="1" ht="138" customHeight="1">
+      <c r="O30" s="12"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:16" s="5" customFormat="1" ht="138" customHeight="1">
       <c r="A31" s="11">
         <v>27</v>
       </c>
@@ -1771,14 +1945,15 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="12"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="13"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O31" s="12"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="1:16" ht="39.75" customHeight="1">
       <c r="A32" s="11">
         <v>28</v>
       </c>
@@ -1790,14 +1965,15 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="12"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="28"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="14"/>
-    </row>
-    <row r="33" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O32" s="12"/>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="1:16" ht="39.75" customHeight="1">
       <c r="A33" s="11">
         <v>29</v>
       </c>
@@ -1810,13 +1986,14 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="12"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O33" s="12"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16" ht="39.75" customHeight="1">
       <c r="A34" s="11">
         <v>30</v>
       </c>
@@ -1829,13 +2006,14 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="12"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="14"/>
-    </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O34" s="12"/>
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A35" s="11">
         <v>31</v>
       </c>
@@ -1847,14 +2025,15 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="12"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="14"/>
-    </row>
-    <row r="36" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O35" s="12"/>
+      <c r="P35" s="14"/>
+    </row>
+    <row r="36" spans="1:16" ht="39.75" customHeight="1">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -1866,14 +2045,15 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="12"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="14"/>
-    </row>
-    <row r="37" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O36" s="12"/>
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="1:16" ht="39.75" customHeight="1">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -1885,14 +2065,15 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="12"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="28"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O37" s="12"/>
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" spans="1:16" ht="39.75" customHeight="1">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -1905,13 +2086,14 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="24"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="12"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O38" s="12"/>
+      <c r="P38" s="14"/>
+    </row>
+    <row r="39" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -1923,14 +2105,15 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="12"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="28"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O39" s="12"/>
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="1:16" ht="39.75" customHeight="1">
       <c r="A40" s="11">
         <v>36</v>
       </c>
@@ -1942,14 +2125,15 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="12"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="28"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="14"/>
-    </row>
-    <row r="41" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O40" s="12"/>
+      <c r="P40" s="14"/>
+    </row>
+    <row r="41" spans="1:16" ht="39.75" customHeight="1">
       <c r="A41" s="11">
         <v>37</v>
       </c>
@@ -1961,14 +2145,15 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="12"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="28"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="14"/>
-    </row>
-    <row r="42" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O41" s="12"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="1:16" ht="39.75" customHeight="1">
       <c r="A42" s="11">
         <v>38</v>
       </c>
@@ -1981,13 +2166,14 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="24"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="12"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
-      <c r="O42" s="14"/>
-    </row>
-    <row r="43" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O42" s="12"/>
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A43" s="11">
         <v>39</v>
       </c>
@@ -1999,14 +2185,15 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="12"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="28"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="14"/>
-    </row>
-    <row r="44" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O43" s="12"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16" ht="39.75" customHeight="1">
       <c r="A44" s="11">
         <v>40</v>
       </c>
@@ -2018,14 +2205,15 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="12"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="28"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
-      <c r="O44" s="14"/>
-    </row>
-    <row r="45" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O44" s="12"/>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="1:16" ht="39.75" customHeight="1">
       <c r="A45" s="11">
         <v>41</v>
       </c>
@@ -2037,14 +2225,15 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="12"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="28"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="14"/>
-    </row>
-    <row r="46" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O45" s="12"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="1:16" ht="39.75" customHeight="1">
       <c r="A46" s="11">
         <v>42</v>
       </c>
@@ -2056,14 +2245,15 @@
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="12"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="28"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
-      <c r="O46" s="14"/>
-    </row>
-    <row r="47" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O46" s="12"/>
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A47" s="11">
         <v>43</v>
       </c>
@@ -2076,13 +2266,14 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
-      <c r="O47" s="14"/>
-    </row>
-    <row r="48" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O47" s="12"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="1:16" ht="39.75" customHeight="1">
       <c r="A48" s="11">
         <v>44</v>
       </c>
@@ -2094,14 +2285,15 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="12"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="28"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
-      <c r="O48" s="14"/>
-    </row>
-    <row r="49" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O48" s="12"/>
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="1:16" ht="39.75" customHeight="1">
       <c r="A49" s="11">
         <v>45</v>
       </c>
@@ -2113,14 +2305,15 @@
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="12"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="28"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
-      <c r="O49" s="14"/>
-    </row>
-    <row r="50" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O49" s="12"/>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="50" spans="1:16" ht="39.75" customHeight="1">
       <c r="A50" s="11">
         <v>46</v>
       </c>
@@ -2132,14 +2325,15 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="12"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="28"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
-      <c r="O50" s="14"/>
-    </row>
-    <row r="51" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O50" s="12"/>
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A51" s="11">
         <v>47</v>
       </c>
@@ -2152,13 +2346,14 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="12"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
-      <c r="O51" s="14"/>
-    </row>
-    <row r="52" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O51" s="12"/>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="1:16" ht="39.75" customHeight="1">
       <c r="A52" s="11">
         <v>48</v>
       </c>
@@ -2170,14 +2365,15 @@
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="12"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="28"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
-      <c r="O52" s="14"/>
-    </row>
-    <row r="53" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O52" s="12"/>
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" spans="1:16" ht="39.75" customHeight="1">
       <c r="A53" s="11">
         <v>49</v>
       </c>
@@ -2189,14 +2385,15 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="12"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="28"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
-      <c r="O53" s="14"/>
-    </row>
-    <row r="54" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O53" s="12"/>
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" spans="1:16" ht="39.75" customHeight="1">
       <c r="A54" s="11">
         <v>50</v>
       </c>
@@ -2208,14 +2405,15 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="12"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="28"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
-      <c r="O54" s="14"/>
-    </row>
-    <row r="55" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O54" s="12"/>
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A55" s="11">
         <v>51</v>
       </c>
@@ -2228,13 +2426,14 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="24"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="12"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="11"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
-      <c r="O55" s="14"/>
-    </row>
-    <row r="56" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O55" s="12"/>
+      <c r="P55" s="14"/>
+    </row>
+    <row r="56" spans="1:16" ht="39.75" customHeight="1">
       <c r="A56" s="11">
         <v>52</v>
       </c>
@@ -2246,14 +2445,15 @@
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="12"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="28"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
-      <c r="O56" s="14"/>
-    </row>
-    <row r="57" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O56" s="12"/>
+      <c r="P56" s="14"/>
+    </row>
+    <row r="57" spans="1:16" ht="39.75" customHeight="1">
       <c r="A57" s="11">
         <v>53</v>
       </c>
@@ -2265,14 +2465,15 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="12"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="28"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
-      <c r="O57" s="14"/>
-    </row>
-    <row r="58" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O57" s="12"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:16" ht="39.75" customHeight="1">
       <c r="A58" s="11">
         <v>54</v>
       </c>
@@ -2284,14 +2485,15 @@
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="12"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="28"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
-      <c r="O58" s="14"/>
-    </row>
-    <row r="59" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O58" s="12"/>
+      <c r="P58" s="14"/>
+    </row>
+    <row r="59" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A59" s="11">
         <v>55</v>
       </c>
@@ -2303,14 +2505,15 @@
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="12"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="28"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
-      <c r="O59" s="14"/>
-    </row>
-    <row r="60" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O59" s="12"/>
+      <c r="P59" s="14"/>
+    </row>
+    <row r="60" spans="1:16" ht="39.75" customHeight="1">
       <c r="A60" s="11">
         <v>56</v>
       </c>
@@ -2322,14 +2525,15 @@
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="12"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="28"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
-      <c r="O60" s="14"/>
-    </row>
-    <row r="61" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O60" s="12"/>
+      <c r="P60" s="14"/>
+    </row>
+    <row r="61" spans="1:16" ht="39.75" customHeight="1">
       <c r="A61" s="11">
         <v>57</v>
       </c>
@@ -2341,14 +2545,15 @@
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="12"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="28"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
-      <c r="O61" s="14"/>
-    </row>
-    <row r="62" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O61" s="12"/>
+      <c r="P61" s="14"/>
+    </row>
+    <row r="62" spans="1:16" ht="39.75" customHeight="1">
       <c r="A62" s="11">
         <v>58</v>
       </c>
@@ -2360,14 +2565,15 @@
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="12"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="28"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
-      <c r="O62" s="14"/>
-    </row>
-    <row r="63" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O62" s="12"/>
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A63" s="11">
         <v>59</v>
       </c>
@@ -2380,13 +2586,14 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="24"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="12"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="11"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
-      <c r="O63" s="14"/>
-    </row>
-    <row r="64" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O63" s="12"/>
+      <c r="P63" s="14"/>
+    </row>
+    <row r="64" spans="1:16" ht="39.75" customHeight="1">
       <c r="A64" s="11">
         <v>60</v>
       </c>
@@ -2398,14 +2605,15 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="12"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="13"/>
       <c r="N64" s="12"/>
-      <c r="O64" s="14"/>
-    </row>
-    <row r="65" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O64" s="12"/>
+      <c r="P64" s="14"/>
+    </row>
+    <row r="65" spans="1:16" ht="39.75" customHeight="1">
       <c r="A65" s="11">
         <v>61</v>
       </c>
@@ -2417,14 +2625,15 @@
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="12"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="28"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
-      <c r="O65" s="14"/>
-    </row>
-    <row r="66" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O65" s="12"/>
+      <c r="P65" s="14"/>
+    </row>
+    <row r="66" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A66" s="11">
         <v>62</v>
       </c>
@@ -2437,13 +2646,14 @@
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="24"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="12"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="11"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
-      <c r="O66" s="14"/>
-    </row>
-    <row r="67" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O66" s="12"/>
+      <c r="P66" s="14"/>
+    </row>
+    <row r="67" spans="1:16" ht="39.75" customHeight="1">
       <c r="A67" s="11">
         <v>63</v>
       </c>
@@ -2455,14 +2665,15 @@
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="12"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="28"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
-      <c r="O67" s="14"/>
-    </row>
-    <row r="68" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O67" s="12"/>
+      <c r="P67" s="14"/>
+    </row>
+    <row r="68" spans="1:16" ht="39.75" customHeight="1">
       <c r="A68" s="11">
         <v>64</v>
       </c>
@@ -2474,14 +2685,15 @@
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="12"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="13"/>
       <c r="N68" s="12"/>
-      <c r="O68" s="14"/>
-    </row>
-    <row r="69" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O68" s="12"/>
+      <c r="P68" s="14"/>
+    </row>
+    <row r="69" spans="1:16" ht="39.75" customHeight="1">
       <c r="A69" s="11">
         <v>65</v>
       </c>
@@ -2493,14 +2705,15 @@
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="12"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="28"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
-      <c r="O69" s="14"/>
-    </row>
-    <row r="70" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="O69" s="12"/>
+      <c r="P69" s="14"/>
+    </row>
+    <row r="70" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A70" s="11">
         <v>66</v>
       </c>
@@ -2513,13 +2726,14 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="24"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="12"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="11"/>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
-      <c r="O70" s="14"/>
-    </row>
-    <row r="71" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O70" s="12"/>
+      <c r="P70" s="14"/>
+    </row>
+    <row r="71" spans="1:16" ht="39.75" customHeight="1">
       <c r="A71" s="11">
         <v>67</v>
       </c>
@@ -2531,14 +2745,15 @@
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="12"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="28"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
-      <c r="O71" s="14"/>
-    </row>
-    <row r="72" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O71" s="12"/>
+      <c r="P71" s="14"/>
+    </row>
+    <row r="72" spans="1:16" ht="39.75" customHeight="1">
       <c r="A72" s="11">
         <v>68</v>
       </c>
@@ -2551,13 +2766,14 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="24"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="12"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="13"/>
       <c r="N72" s="12"/>
-      <c r="O72" s="14"/>
-    </row>
-    <row r="73" spans="1:15" ht="39.75" customHeight="1">
+      <c r="O72" s="12"/>
+      <c r="P72" s="14"/>
+    </row>
+    <row r="73" spans="1:16" ht="39.75" customHeight="1">
       <c r="A73" s="11">
         <v>69</v>
       </c>
@@ -2569,14 +2785,15 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="12"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="28"/>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
-      <c r="O73" s="14"/>
-    </row>
-    <row r="74" spans="1:15" s="5" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
+      <c r="O73" s="12"/>
+      <c r="P73" s="14"/>
+    </row>
+    <row r="74" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
       <c r="A74" s="15">
         <v>70</v>
       </c>
@@ -2589,29 +2806,30 @@
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
       <c r="J74" s="27"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="16"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="15"/>
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
-      <c r="O74" s="18"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="L3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1:K2 K3 J4:K1048576">
+  <conditionalFormatting sqref="K1:L2 L3 K4:L1048576">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="否">
-      <formula>NOT(ISERROR(SEARCH("否",J1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("否",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K22" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$T$6:$T$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$U$6:$U$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.4" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/static/sheet1.xlsx
+++ b/app/static/sheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dada/workspace/fix_grid/app/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92535CEE-7968-334F-A496-9F910F19CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F806AD7B-53E4-E34A-ABD2-35204C1B0F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16760" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,6 +908,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,12 +942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1275,8 +1275,8 @@
   <dimension ref="A1:U74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="4" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1300,62 +1300,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="I1" s="38" t="s">
+      <c r="B1" s="38"/>
+      <c r="I1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:21" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:21" ht="34.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:21" ht="50.25" customHeight="1">
       <c r="A4" s="22" t="s">
@@ -1385,7 +1385,7 @@
       <c r="I4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="36" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="29" t="s">
@@ -1408,9 +1408,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
@@ -1428,9 +1426,7 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
+      <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
@@ -1451,9 +1447,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
+      <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -1474,9 +1468,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
@@ -1494,9 +1486,7 @@
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
+      <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -1514,9 +1504,7 @@
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:21" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A10" s="30">
-        <v>6</v>
-      </c>
+      <c r="A10" s="30"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
@@ -1534,9 +1522,7 @@
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A11" s="11">
-        <v>7</v>
-      </c>
+      <c r="A11" s="11"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
@@ -1545,7 +1531,7 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="47"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="34"/>
       <c r="L11" s="31"/>
       <c r="M11" s="12"/>
@@ -1554,9 +1540,7 @@
       <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A12" s="11">
-        <v>8</v>
-      </c>
+      <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -1574,9 +1558,7 @@
       <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A13" s="11">
-        <v>9</v>
-      </c>
+      <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
@@ -1594,9 +1576,7 @@
       <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A14" s="11">
-        <v>10</v>
-      </c>
+      <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -1614,9 +1594,7 @@
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A15" s="11">
-        <v>11</v>
-      </c>
+      <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
@@ -1634,9 +1612,7 @@
       <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A16" s="11">
-        <v>12</v>
-      </c>
+      <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
@@ -1654,9 +1630,7 @@
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A17" s="11">
-        <v>13</v>
-      </c>
+      <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
@@ -1674,9 +1648,7 @@
       <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A18" s="11">
-        <v>14</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
@@ -1694,9 +1666,7 @@
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A19" s="11">
-        <v>15</v>
-      </c>
+      <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -1714,9 +1684,7 @@
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A20" s="11">
-        <v>16</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
@@ -1734,9 +1702,7 @@
       <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A21" s="11">
-        <v>17</v>
-      </c>
+      <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
@@ -1754,9 +1720,7 @@
       <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A22" s="11">
-        <v>18</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
@@ -1774,9 +1738,7 @@
       <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A23" s="11">
-        <v>19</v>
-      </c>
+      <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
@@ -1794,9 +1756,7 @@
       <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A24" s="11">
-        <v>20</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
@@ -1814,9 +1774,7 @@
       <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A25" s="11">
-        <v>21</v>
-      </c>
+      <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
@@ -1834,9 +1792,7 @@
       <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A26" s="11">
-        <v>22</v>
-      </c>
+      <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
@@ -1854,9 +1810,7 @@
       <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A27" s="11">
-        <v>23</v>
-      </c>
+      <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
@@ -1874,9 +1828,7 @@
       <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A28" s="11">
-        <v>24</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
@@ -1894,9 +1846,7 @@
       <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A29" s="11">
-        <v>25</v>
-      </c>
+      <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
@@ -1914,9 +1864,7 @@
       <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A30" s="11">
-        <v>26</v>
-      </c>
+      <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
@@ -1934,9 +1882,7 @@
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" s="5" customFormat="1" ht="138" customHeight="1">
-      <c r="A31" s="11">
-        <v>27</v>
-      </c>
+      <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
@@ -1954,9 +1900,7 @@
       <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A32" s="11">
-        <v>28</v>
-      </c>
+      <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
@@ -1974,9 +1918,7 @@
       <c r="P32" s="14"/>
     </row>
     <row r="33" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A33" s="11">
-        <v>29</v>
-      </c>
+      <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
@@ -1994,9 +1936,7 @@
       <c r="P33" s="14"/>
     </row>
     <row r="34" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A34" s="11">
-        <v>30</v>
-      </c>
+      <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
@@ -2014,9 +1954,7 @@
       <c r="P34" s="14"/>
     </row>
     <row r="35" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A35" s="11">
-        <v>31</v>
-      </c>
+      <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
@@ -2034,9 +1972,7 @@
       <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A36" s="11">
-        <v>32</v>
-      </c>
+      <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
@@ -2054,9 +1990,7 @@
       <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A37" s="11">
-        <v>33</v>
-      </c>
+      <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
@@ -2074,9 +2008,7 @@
       <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A38" s="11">
-        <v>34</v>
-      </c>
+      <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
@@ -2094,9 +2026,7 @@
       <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A39" s="11">
-        <v>35</v>
-      </c>
+      <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
@@ -2114,9 +2044,7 @@
       <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A40" s="11">
-        <v>36</v>
-      </c>
+      <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
@@ -2134,9 +2062,7 @@
       <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A41" s="11">
-        <v>37</v>
-      </c>
+      <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
@@ -2154,9 +2080,7 @@
       <c r="P41" s="14"/>
     </row>
     <row r="42" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A42" s="11">
-        <v>38</v>
-      </c>
+      <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
@@ -2174,9 +2098,7 @@
       <c r="P42" s="14"/>
     </row>
     <row r="43" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A43" s="11">
-        <v>39</v>
-      </c>
+      <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
@@ -2194,9 +2116,7 @@
       <c r="P43" s="14"/>
     </row>
     <row r="44" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A44" s="11">
-        <v>40</v>
-      </c>
+      <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
@@ -2214,9 +2134,7 @@
       <c r="P44" s="14"/>
     </row>
     <row r="45" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A45" s="11">
-        <v>41</v>
-      </c>
+      <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
@@ -2234,9 +2152,7 @@
       <c r="P45" s="14"/>
     </row>
     <row r="46" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A46" s="11">
-        <v>42</v>
-      </c>
+      <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="13"/>
@@ -2254,9 +2170,7 @@
       <c r="P46" s="14"/>
     </row>
     <row r="47" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A47" s="11">
-        <v>43</v>
-      </c>
+      <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="13"/>
@@ -2274,9 +2188,7 @@
       <c r="P47" s="14"/>
     </row>
     <row r="48" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A48" s="11">
-        <v>44</v>
-      </c>
+      <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
@@ -2294,9 +2206,7 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A49" s="11">
-        <v>45</v>
-      </c>
+      <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
@@ -2314,9 +2224,7 @@
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A50" s="11">
-        <v>46</v>
-      </c>
+      <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
@@ -2334,9 +2242,7 @@
       <c r="P50" s="14"/>
     </row>
     <row r="51" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A51" s="11">
-        <v>47</v>
-      </c>
+      <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13"/>
@@ -2354,9 +2260,7 @@
       <c r="P51" s="14"/>
     </row>
     <row r="52" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A52" s="11">
-        <v>48</v>
-      </c>
+      <c r="A52" s="11"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
@@ -2374,9 +2278,7 @@
       <c r="P52" s="14"/>
     </row>
     <row r="53" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A53" s="11">
-        <v>49</v>
-      </c>
+      <c r="A53" s="11"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13"/>
@@ -2394,9 +2296,7 @@
       <c r="P53" s="14"/>
     </row>
     <row r="54" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A54" s="11">
-        <v>50</v>
-      </c>
+      <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13"/>
@@ -2414,9 +2314,7 @@
       <c r="P54" s="14"/>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A55" s="11">
-        <v>51</v>
-      </c>
+      <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="13"/>
@@ -2434,9 +2332,7 @@
       <c r="P55" s="14"/>
     </row>
     <row r="56" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A56" s="11">
-        <v>52</v>
-      </c>
+      <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
@@ -2454,9 +2350,7 @@
       <c r="P56" s="14"/>
     </row>
     <row r="57" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A57" s="11">
-        <v>53</v>
-      </c>
+      <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13"/>
@@ -2474,9 +2368,7 @@
       <c r="P57" s="14"/>
     </row>
     <row r="58" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A58" s="11">
-        <v>54</v>
-      </c>
+      <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
@@ -2494,9 +2386,7 @@
       <c r="P58" s="14"/>
     </row>
     <row r="59" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A59" s="11">
-        <v>55</v>
-      </c>
+      <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="13"/>
@@ -2514,9 +2404,7 @@
       <c r="P59" s="14"/>
     </row>
     <row r="60" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A60" s="11">
-        <v>56</v>
-      </c>
+      <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
@@ -2534,9 +2422,7 @@
       <c r="P60" s="14"/>
     </row>
     <row r="61" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A61" s="11">
-        <v>57</v>
-      </c>
+      <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
@@ -2554,9 +2440,7 @@
       <c r="P61" s="14"/>
     </row>
     <row r="62" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A62" s="11">
-        <v>58</v>
-      </c>
+      <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
@@ -2574,9 +2458,7 @@
       <c r="P62" s="14"/>
     </row>
     <row r="63" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A63" s="11">
-        <v>59</v>
-      </c>
+      <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="13"/>
@@ -2594,9 +2476,7 @@
       <c r="P63" s="14"/>
     </row>
     <row r="64" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A64" s="11">
-        <v>60</v>
-      </c>
+      <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -2614,9 +2494,7 @@
       <c r="P64" s="14"/>
     </row>
     <row r="65" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A65" s="11">
-        <v>61</v>
-      </c>
+      <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -2634,9 +2512,7 @@
       <c r="P65" s="14"/>
     </row>
     <row r="66" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A66" s="11">
-        <v>62</v>
-      </c>
+      <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -2654,9 +2530,7 @@
       <c r="P66" s="14"/>
     </row>
     <row r="67" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A67" s="11">
-        <v>63</v>
-      </c>
+      <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -2674,9 +2548,7 @@
       <c r="P67" s="14"/>
     </row>
     <row r="68" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A68" s="11">
-        <v>64</v>
-      </c>
+      <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
@@ -2694,9 +2566,7 @@
       <c r="P68" s="14"/>
     </row>
     <row r="69" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A69" s="11">
-        <v>65</v>
-      </c>
+      <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="13"/>
@@ -2714,9 +2584,7 @@
       <c r="P69" s="14"/>
     </row>
     <row r="70" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A70" s="11">
-        <v>66</v>
-      </c>
+      <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
@@ -2734,9 +2602,7 @@
       <c r="P70" s="14"/>
     </row>
     <row r="71" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A71" s="11">
-        <v>67</v>
-      </c>
+      <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="13"/>
@@ -2754,9 +2620,7 @@
       <c r="P71" s="14"/>
     </row>
     <row r="72" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A72" s="11">
-        <v>68</v>
-      </c>
+      <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
@@ -2774,9 +2638,7 @@
       <c r="P72" s="14"/>
     </row>
     <row r="73" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A73" s="11">
-        <v>69</v>
-      </c>
+      <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13"/>
@@ -2794,9 +2656,7 @@
       <c r="P73" s="14"/>
     </row>
     <row r="74" spans="1:16" s="5" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A74" s="15">
-        <v>70</v>
-      </c>
+      <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17"/>
